--- a/biology/Biologie cellulaire et moléculaire/Cellule_pyramidale/Cellule_pyramidale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_pyramidale/Cellule_pyramidale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules pyramidales (ou neurone pyramidal) sont un certain type de neurone. Leur nom vient de la morphologie triangulaire de leur péricaryon. Elles possèdent en outre un arbre dendritique très développé qui reçoit un grand nombre de synapses. Leur axone peut projeter à grande distance. De par leurs propriétés morphologiques, on pense que les cellules pyramidales jouent un rôle central dans l'intégration de signaux convergents. Par ailleurs, elles s'adressent aux motoneurones et ont la possibilité de commander la force de contraction des muscles.
 Il existe plusieurs catégories de cellules pyramidales selon leur localisation dans le cerveau, leur morphologie change légèrement :
